--- a/biology/Botanique/Forêt_domaniale_de_la_Côte_sous_le_Vent/Forêt_domaniale_de_la_Côte_sous_le_Vent.xlsx
+++ b/biology/Botanique/Forêt_domaniale_de_la_Côte_sous_le_Vent/Forêt_domaniale_de_la_Côte_sous_le_Vent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_la_C%C3%B4te_sous_le_Vent</t>
+          <t>Forêt_domaniale_de_la_Côte_sous_le_Vent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt domaniale de la Côte sous le Vent est une forêt littorale de l'Ouest de l'île de La Réunion, département d'outre-mer français dans le Sud-Ouest de l'océan Indien[1]. Forêt domaniale toute en longueur, elle sépare la baie de Saint-Paul du centre-ville de la commune de Saint-Paul, dont elle relève. En son centre passe l'embouchure de l'étang de Saint-Paul.
-Une partie de cette forêt constitue la réserve naturelle nationale de l’étang de Saint-Paul, zone humide  qui possède l’ensemble le plus diversifié de groupements végétaux marécageux et notamment la seule prairie de Cyperus Papyrus de l’île[2].
+La forêt domaniale de la Côte sous le Vent est une forêt littorale de l'Ouest de l'île de La Réunion, département d'outre-mer français dans le Sud-Ouest de l'océan Indien. Forêt domaniale toute en longueur, elle sépare la baie de Saint-Paul du centre-ville de la commune de Saint-Paul, dont elle relève. En son centre passe l'embouchure de l'étang de Saint-Paul.
+Une partie de cette forêt constitue la réserve naturelle nationale de l’étang de Saint-Paul, zone humide  qui possède l’ensemble le plus diversifié de groupements végétaux marécageux et notamment la seule prairie de Cyperus Papyrus de l’île.
 </t>
         </is>
       </c>
